--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -5,25 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\alemi\manpower-optimization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\Research\manpower-optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972F71C9-3B15-4B0C-8918-931B7308A1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02281665-5A0F-4AD6-9C46-25794B865AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Employees</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="40">
   <si>
     <t>Employee 1</t>
   </si>
@@ -57,6 +56,93 @@
   <si>
     <t>Task 6</t>
   </si>
+  <si>
+    <t>Employee 6</t>
+  </si>
+  <si>
+    <t>Employee 7</t>
+  </si>
+  <si>
+    <t>Employee 8</t>
+  </si>
+  <si>
+    <t>Task 7</t>
+  </si>
+  <si>
+    <t>Task 8</t>
+  </si>
+  <si>
+    <t>Task 9</t>
+  </si>
+  <si>
+    <t>Task 10</t>
+  </si>
+  <si>
+    <t>Task 11</t>
+  </si>
+  <si>
+    <t>Task 12</t>
+  </si>
+  <si>
+    <t>Task 13</t>
+  </si>
+  <si>
+    <t>Task 14</t>
+  </si>
+  <si>
+    <t>Task 15</t>
+  </si>
+  <si>
+    <t>Task 16</t>
+  </si>
+  <si>
+    <t>Task 17</t>
+  </si>
+  <si>
+    <t>Task 18</t>
+  </si>
+  <si>
+    <t>Task 19</t>
+  </si>
+  <si>
+    <t>Task 20</t>
+  </si>
+  <si>
+    <t>Employee 9</t>
+  </si>
+  <si>
+    <t>Employee 10</t>
+  </si>
+  <si>
+    <t>Employee 11</t>
+  </si>
+  <si>
+    <t>Employee 12</t>
+  </si>
+  <si>
+    <t>Employee 13</t>
+  </si>
+  <si>
+    <t>Employee 14</t>
+  </si>
+  <si>
+    <t>Employee 15</t>
+  </si>
+  <si>
+    <t>Employee 16</t>
+  </si>
+  <si>
+    <t>Employee 17</t>
+  </si>
+  <si>
+    <t>Employee 18</t>
+  </si>
+  <si>
+    <t>Employee 19</t>
+  </si>
+  <si>
+    <t>Employee 20</t>
+  </si>
 </sst>
 </file>
 
@@ -71,12 +157,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -119,7 +208,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -424,157 +513,4139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B19" sqref="B19:U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <v>8</v>
+      </c>
+      <c r="P2">
+        <v>9</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>3</v>
+      </c>
+      <c r="U2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+      <c r="S4">
+        <v>4</v>
+      </c>
+      <c r="T4">
+        <v>4</v>
+      </c>
+      <c r="U4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>8</v>
+      </c>
+      <c r="P5">
+        <v>9</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>3</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>7000</v>
-      </c>
-      <c r="C2">
-        <v>20000</v>
-      </c>
-      <c r="D2">
-        <v>15000</v>
-      </c>
-      <c r="E2">
-        <v>11000</v>
-      </c>
-      <c r="F2">
-        <v>8000</v>
-      </c>
-      <c r="G2">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>19000</v>
-      </c>
-      <c r="C3">
-        <v>11000</v>
-      </c>
-      <c r="D3">
-        <v>11000</v>
-      </c>
-      <c r="E3">
-        <v>4000</v>
-      </c>
-      <c r="F3">
-        <v>8000</v>
-      </c>
-      <c r="G3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>2000</v>
-      </c>
-      <c r="C4">
-        <v>12000</v>
-      </c>
-      <c r="D4">
-        <v>6000</v>
-      </c>
-      <c r="E4">
-        <v>2000</v>
-      </c>
-      <c r="F4">
-        <v>1000</v>
-      </c>
-      <c r="G4">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>12000</v>
-      </c>
-      <c r="C5">
-        <v>17000</v>
-      </c>
-      <c r="D5">
-        <v>10000</v>
-      </c>
-      <c r="E5">
-        <v>16000</v>
-      </c>
-      <c r="F5">
-        <v>15000</v>
-      </c>
-      <c r="G5">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>19000</v>
-      </c>
-      <c r="C6">
-        <v>12000</v>
-      </c>
-      <c r="D6">
-        <v>20000</v>
-      </c>
-      <c r="E6">
-        <v>3000</v>
-      </c>
-      <c r="F6">
-        <v>5000</v>
-      </c>
-      <c r="G6">
-        <v>19000</v>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>8</v>
+      </c>
+      <c r="P7">
+        <v>9</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>3</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>3</v>
+      </c>
+      <c r="S9">
+        <v>4</v>
+      </c>
+      <c r="T9">
+        <v>4</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>3</v>
+      </c>
+      <c r="R10">
+        <v>3</v>
+      </c>
+      <c r="S10">
+        <v>4</v>
+      </c>
+      <c r="T10">
+        <v>4</v>
+      </c>
+      <c r="U10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11">
+        <v>8</v>
+      </c>
+      <c r="P11">
+        <v>9</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>3</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="R13">
+        <v>3</v>
+      </c>
+      <c r="S13">
+        <v>4</v>
+      </c>
+      <c r="T13">
+        <v>4</v>
+      </c>
+      <c r="U13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14">
+        <v>8</v>
+      </c>
+      <c r="P14">
+        <v>9</v>
+      </c>
+      <c r="Q14">
+        <v>5</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>3</v>
+      </c>
+      <c r="U14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>3</v>
+      </c>
+      <c r="R16">
+        <v>3</v>
+      </c>
+      <c r="S16">
+        <v>4</v>
+      </c>
+      <c r="T16">
+        <v>4</v>
+      </c>
+      <c r="U16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>3</v>
+      </c>
+      <c r="R17">
+        <v>3</v>
+      </c>
+      <c r="S17">
+        <v>4</v>
+      </c>
+      <c r="T17">
+        <v>4</v>
+      </c>
+      <c r="U17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18">
+        <v>8</v>
+      </c>
+      <c r="P18">
+        <v>9</v>
+      </c>
+      <c r="Q18">
+        <v>5</v>
+      </c>
+      <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>3</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19">
+        <v>8</v>
+      </c>
+      <c r="P19">
+        <v>9</v>
+      </c>
+      <c r="Q19">
+        <v>5</v>
+      </c>
+      <c r="R19">
+        <v>2</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>3</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <v>4</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>3</v>
+      </c>
+      <c r="R21">
+        <v>3</v>
+      </c>
+      <c r="S21">
+        <v>4</v>
+      </c>
+      <c r="T21">
+        <v>4</v>
+      </c>
+      <c r="U21">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB50C6C9-FAD7-4089-B718-84779D769151}">
+  <dimension ref="A1:U21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:U21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2">
+        <v>1000</v>
+      </c>
+      <c r="E2">
+        <v>1000</v>
+      </c>
+      <c r="F2">
+        <v>1000</v>
+      </c>
+      <c r="G2">
+        <v>1000</v>
+      </c>
+      <c r="H2">
+        <v>1000</v>
+      </c>
+      <c r="I2">
+        <v>1000</v>
+      </c>
+      <c r="J2">
+        <v>1000</v>
+      </c>
+      <c r="K2">
+        <v>1000</v>
+      </c>
+      <c r="L2">
+        <v>1000</v>
+      </c>
+      <c r="M2">
+        <v>1000</v>
+      </c>
+      <c r="N2">
+        <v>1000</v>
+      </c>
+      <c r="O2">
+        <v>1000</v>
+      </c>
+      <c r="P2">
+        <v>1000</v>
+      </c>
+      <c r="Q2">
+        <v>1000</v>
+      </c>
+      <c r="R2">
+        <v>1000</v>
+      </c>
+      <c r="S2">
+        <v>1000</v>
+      </c>
+      <c r="T2">
+        <v>1000</v>
+      </c>
+      <c r="U2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1000</v>
+      </c>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+      <c r="D3">
+        <v>1000</v>
+      </c>
+      <c r="E3">
+        <v>1000</v>
+      </c>
+      <c r="F3">
+        <v>1000</v>
+      </c>
+      <c r="G3">
+        <v>1000</v>
+      </c>
+      <c r="H3">
+        <v>1011</v>
+      </c>
+      <c r="I3">
+        <v>1000</v>
+      </c>
+      <c r="J3">
+        <v>1000</v>
+      </c>
+      <c r="K3">
+        <v>1000</v>
+      </c>
+      <c r="L3">
+        <v>1000</v>
+      </c>
+      <c r="M3">
+        <v>1000</v>
+      </c>
+      <c r="N3">
+        <v>10000</v>
+      </c>
+      <c r="O3">
+        <v>1000</v>
+      </c>
+      <c r="P3">
+        <v>1000</v>
+      </c>
+      <c r="Q3">
+        <v>1000</v>
+      </c>
+      <c r="R3">
+        <v>1000</v>
+      </c>
+      <c r="S3">
+        <v>1000</v>
+      </c>
+      <c r="T3">
+        <v>1000</v>
+      </c>
+      <c r="U3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1000</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+      <c r="E4">
+        <v>1000</v>
+      </c>
+      <c r="F4">
+        <v>1000</v>
+      </c>
+      <c r="G4">
+        <v>1000</v>
+      </c>
+      <c r="H4">
+        <v>1000</v>
+      </c>
+      <c r="I4">
+        <v>1000</v>
+      </c>
+      <c r="J4">
+        <v>1000</v>
+      </c>
+      <c r="K4">
+        <v>1000</v>
+      </c>
+      <c r="L4">
+        <v>1000</v>
+      </c>
+      <c r="M4">
+        <v>1000</v>
+      </c>
+      <c r="N4">
+        <v>1000</v>
+      </c>
+      <c r="O4">
+        <v>1000</v>
+      </c>
+      <c r="P4">
+        <v>1000</v>
+      </c>
+      <c r="Q4">
+        <v>1000</v>
+      </c>
+      <c r="R4">
+        <v>1000</v>
+      </c>
+      <c r="S4">
+        <v>1000</v>
+      </c>
+      <c r="T4">
+        <v>1000</v>
+      </c>
+      <c r="U4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>14.1</v>
+      </c>
+      <c r="C5">
+        <v>15.7</v>
+      </c>
+      <c r="D5">
+        <v>14.8</v>
+      </c>
+      <c r="E5">
+        <v>14.5</v>
+      </c>
+      <c r="F5">
+        <v>4.3</v>
+      </c>
+      <c r="G5">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>8.1</v>
+      </c>
+      <c r="I5">
+        <v>10.7</v>
+      </c>
+      <c r="J5">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="K5">
+        <v>13.6</v>
+      </c>
+      <c r="L5">
+        <v>4.5</v>
+      </c>
+      <c r="M5">
+        <v>13.7</v>
+      </c>
+      <c r="N5">
+        <v>6.6000000000000014</v>
+      </c>
+      <c r="O5">
+        <v>4.7</v>
+      </c>
+      <c r="P5">
+        <v>14.5</v>
+      </c>
+      <c r="Q5">
+        <v>10.3</v>
+      </c>
+      <c r="R5">
+        <v>11.6</v>
+      </c>
+      <c r="S5">
+        <v>14.2</v>
+      </c>
+      <c r="T5">
+        <v>3.4</v>
+      </c>
+      <c r="U5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>14.1</v>
+      </c>
+      <c r="C6">
+        <v>11.8</v>
+      </c>
+      <c r="D6">
+        <v>6.4</v>
+      </c>
+      <c r="E6">
+        <v>10.9</v>
+      </c>
+      <c r="F6">
+        <v>11.9</v>
+      </c>
+      <c r="G6">
+        <v>13.3</v>
+      </c>
+      <c r="H6">
+        <v>11</v>
+      </c>
+      <c r="I6">
+        <v>9.5</v>
+      </c>
+      <c r="J6">
+        <v>7.6</v>
+      </c>
+      <c r="K6">
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="N6">
+        <v>14</v>
+      </c>
+      <c r="O6">
+        <v>9.7999999999999989</v>
+      </c>
+      <c r="P6">
+        <v>15.8</v>
+      </c>
+      <c r="Q6">
+        <v>12.8</v>
+      </c>
+      <c r="R6">
+        <v>7.8</v>
+      </c>
+      <c r="S6">
+        <v>12.7</v>
+      </c>
+      <c r="T6">
+        <v>9.1</v>
+      </c>
+      <c r="U6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>6.6000000000000014</v>
+      </c>
+      <c r="C7">
+        <v>8.1</v>
+      </c>
+      <c r="D7">
+        <v>12.6</v>
+      </c>
+      <c r="E7">
+        <v>11.8</v>
+      </c>
+      <c r="F7">
+        <v>6.6999999999999993</v>
+      </c>
+      <c r="G7">
+        <v>8.2999999999999989</v>
+      </c>
+      <c r="H7">
+        <v>11.4</v>
+      </c>
+      <c r="I7">
+        <v>15.8</v>
+      </c>
+      <c r="J7">
+        <v>14.8</v>
+      </c>
+      <c r="K7">
+        <v>12.4</v>
+      </c>
+      <c r="L7">
+        <v>13.2</v>
+      </c>
+      <c r="M7">
+        <v>8.1</v>
+      </c>
+      <c r="N7">
+        <v>11.7</v>
+      </c>
+      <c r="O7">
+        <v>11.2</v>
+      </c>
+      <c r="P7">
+        <v>12.7</v>
+      </c>
+      <c r="Q7">
+        <v>7.1</v>
+      </c>
+      <c r="R7">
+        <v>11.3</v>
+      </c>
+      <c r="S7">
+        <v>14.8</v>
+      </c>
+      <c r="T7">
+        <v>7.9</v>
+      </c>
+      <c r="U7">
+        <v>4.1000000000000014</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>9.8999999999999986</v>
+      </c>
+      <c r="C8">
+        <v>6.8</v>
+      </c>
+      <c r="D8">
+        <v>15.1</v>
+      </c>
+      <c r="E8">
+        <v>6.8</v>
+      </c>
+      <c r="F8">
+        <v>6.6999999999999993</v>
+      </c>
+      <c r="G8">
+        <v>5.6</v>
+      </c>
+      <c r="H8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I8">
+        <v>4.3</v>
+      </c>
+      <c r="J8">
+        <v>4.3</v>
+      </c>
+      <c r="K8">
+        <v>12.5</v>
+      </c>
+      <c r="L8">
+        <v>11.2</v>
+      </c>
+      <c r="M8">
+        <v>15.4</v>
+      </c>
+      <c r="N8">
+        <v>10.9</v>
+      </c>
+      <c r="O8">
+        <v>7.7</v>
+      </c>
+      <c r="P8">
+        <v>5.5000000000000009</v>
+      </c>
+      <c r="Q8">
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="R8">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="S8">
+        <v>17.2</v>
+      </c>
+      <c r="T8">
+        <v>8.9</v>
+      </c>
+      <c r="U8">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C9">
+        <v>14.5</v>
+      </c>
+      <c r="D9">
+        <v>14.8</v>
+      </c>
+      <c r="E9">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G9">
+        <v>9.1</v>
+      </c>
+      <c r="H9">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I9">
+        <v>12.7</v>
+      </c>
+      <c r="J9">
+        <v>7.9999999999999991</v>
+      </c>
+      <c r="K9">
+        <v>7.2</v>
+      </c>
+      <c r="L9">
+        <v>6.6</v>
+      </c>
+      <c r="M9">
+        <v>10.9</v>
+      </c>
+      <c r="N9">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="O9">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="P9">
+        <v>13.7</v>
+      </c>
+      <c r="Q9">
+        <v>13.9</v>
+      </c>
+      <c r="R9">
+        <v>12.7</v>
+      </c>
+      <c r="S9">
+        <v>16.2</v>
+      </c>
+      <c r="T9">
+        <v>5.8</v>
+      </c>
+      <c r="U9">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C10">
+        <v>6.4</v>
+      </c>
+      <c r="D10">
+        <v>6.9</v>
+      </c>
+      <c r="E10">
+        <v>14.5</v>
+      </c>
+      <c r="F10">
+        <v>10.9</v>
+      </c>
+      <c r="G10">
+        <v>13.5</v>
+      </c>
+      <c r="H10">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I10">
+        <v>5.6</v>
+      </c>
+      <c r="J10">
+        <v>5.8</v>
+      </c>
+      <c r="K10">
+        <v>9.6</v>
+      </c>
+      <c r="L10">
+        <v>5.6</v>
+      </c>
+      <c r="M10">
+        <v>8.5</v>
+      </c>
+      <c r="N10">
+        <v>14.9</v>
+      </c>
+      <c r="O10">
+        <v>9.2999999999999989</v>
+      </c>
+      <c r="P10">
+        <v>12.1</v>
+      </c>
+      <c r="Q10">
+        <v>10.7</v>
+      </c>
+      <c r="R10">
+        <v>9.1</v>
+      </c>
+      <c r="S10">
+        <v>10.4</v>
+      </c>
+      <c r="T10">
+        <v>5.8000000000000007</v>
+      </c>
+      <c r="U10">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>8.7999999999999989</v>
+      </c>
+      <c r="C11">
+        <v>14.2</v>
+      </c>
+      <c r="D11">
+        <v>12.4</v>
+      </c>
+      <c r="E11">
+        <v>6.9999999999999991</v>
+      </c>
+      <c r="F11">
+        <v>14</v>
+      </c>
+      <c r="G11">
+        <v>10.6</v>
+      </c>
+      <c r="H11">
+        <v>5.8</v>
+      </c>
+      <c r="I11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J11">
+        <v>12.2</v>
+      </c>
+      <c r="K11">
+        <v>10.4</v>
+      </c>
+      <c r="L11">
+        <v>10.4</v>
+      </c>
+      <c r="M11">
+        <v>11.5</v>
+      </c>
+      <c r="N11">
+        <v>12</v>
+      </c>
+      <c r="O11">
+        <v>14.9</v>
+      </c>
+      <c r="P11">
+        <v>9.2999999999999989</v>
+      </c>
+      <c r="Q11">
+        <v>4.8</v>
+      </c>
+      <c r="R11">
+        <v>9.1</v>
+      </c>
+      <c r="S11">
+        <v>11.5</v>
+      </c>
+      <c r="T11">
+        <v>14.5</v>
+      </c>
+      <c r="U11">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>6.2</v>
+      </c>
+      <c r="C12">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D12">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E12">
+        <v>9.5000000000000018</v>
+      </c>
+      <c r="F12">
+        <v>7.6999999999999993</v>
+      </c>
+      <c r="G12">
+        <v>12.5</v>
+      </c>
+      <c r="H12">
+        <v>9.1</v>
+      </c>
+      <c r="I12">
+        <v>14.3</v>
+      </c>
+      <c r="J12">
+        <v>4.8999999999999986</v>
+      </c>
+      <c r="K12">
+        <v>6.9</v>
+      </c>
+      <c r="L12">
+        <v>13</v>
+      </c>
+      <c r="M12">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="N12">
+        <v>10.9</v>
+      </c>
+      <c r="O12">
+        <v>6.8</v>
+      </c>
+      <c r="P12">
+        <v>6.4</v>
+      </c>
+      <c r="Q12">
+        <v>12</v>
+      </c>
+      <c r="R12">
+        <v>14.7</v>
+      </c>
+      <c r="S12">
+        <v>7</v>
+      </c>
+      <c r="T12">
+        <v>11.8</v>
+      </c>
+      <c r="U12">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13">
+        <v>10.6</v>
+      </c>
+      <c r="C13">
+        <v>4.3</v>
+      </c>
+      <c r="D13">
+        <v>7.4</v>
+      </c>
+      <c r="E13">
+        <v>15.4</v>
+      </c>
+      <c r="F13">
+        <v>13.3</v>
+      </c>
+      <c r="G13">
+        <v>8.2999999999999989</v>
+      </c>
+      <c r="H13">
+        <v>14</v>
+      </c>
+      <c r="I13">
+        <v>12.3</v>
+      </c>
+      <c r="J13">
+        <v>7.8999999999999986</v>
+      </c>
+      <c r="K13">
+        <v>6.2</v>
+      </c>
+      <c r="L13">
+        <v>5.2999999999999989</v>
+      </c>
+      <c r="M13">
+        <v>6.1999999999999993</v>
+      </c>
+      <c r="N13">
+        <v>11.3</v>
+      </c>
+      <c r="O13">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="P13">
+        <v>15.1</v>
+      </c>
+      <c r="Q13">
+        <v>7.3999999999999986</v>
+      </c>
+      <c r="R13">
+        <v>12.3</v>
+      </c>
+      <c r="S13">
+        <v>12.4</v>
+      </c>
+      <c r="T13">
+        <v>12.6</v>
+      </c>
+      <c r="U13">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>12.1</v>
+      </c>
+      <c r="C14">
+        <v>6.9</v>
+      </c>
+      <c r="D14">
+        <v>13.1</v>
+      </c>
+      <c r="E14">
+        <v>8.4</v>
+      </c>
+      <c r="F14">
+        <v>5.2999999999999989</v>
+      </c>
+      <c r="G14">
+        <v>7.3000000000000007</v>
+      </c>
+      <c r="H14">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I14">
+        <v>10.6</v>
+      </c>
+      <c r="J14">
+        <v>14</v>
+      </c>
+      <c r="K14">
+        <v>13.4</v>
+      </c>
+      <c r="L14">
+        <v>13</v>
+      </c>
+      <c r="M14">
+        <v>12.2</v>
+      </c>
+      <c r="N14">
+        <v>6.5</v>
+      </c>
+      <c r="O14">
+        <v>7.4</v>
+      </c>
+      <c r="P14">
+        <v>5.6</v>
+      </c>
+      <c r="Q14">
+        <v>7.8</v>
+      </c>
+      <c r="R14">
+        <v>12.1</v>
+      </c>
+      <c r="S14">
+        <v>10.1</v>
+      </c>
+      <c r="T14">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="U14">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>10.8</v>
+      </c>
+      <c r="C15">
+        <v>6.1</v>
+      </c>
+      <c r="D15">
+        <v>8.6</v>
+      </c>
+      <c r="E15">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F15">
+        <v>14.3</v>
+      </c>
+      <c r="G15">
+        <v>12.3</v>
+      </c>
+      <c r="H15">
+        <v>15.1</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+      <c r="J15">
+        <v>13</v>
+      </c>
+      <c r="K15">
+        <v>9.1</v>
+      </c>
+      <c r="L15">
+        <v>12.8</v>
+      </c>
+      <c r="M15">
+        <v>8.5</v>
+      </c>
+      <c r="N15">
+        <v>8</v>
+      </c>
+      <c r="O15">
+        <v>12.4</v>
+      </c>
+      <c r="P15">
+        <v>10</v>
+      </c>
+      <c r="Q15">
+        <v>14.7</v>
+      </c>
+      <c r="R15">
+        <v>15</v>
+      </c>
+      <c r="S15">
+        <v>13.6</v>
+      </c>
+      <c r="T15">
+        <v>7.6000000000000014</v>
+      </c>
+      <c r="U15">
+        <v>8.2999999999999989</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <v>9.7999999999999989</v>
+      </c>
+      <c r="C16">
+        <v>13.1</v>
+      </c>
+      <c r="D16">
+        <v>12.7</v>
+      </c>
+      <c r="E16">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F16">
+        <v>6.1999999999999993</v>
+      </c>
+      <c r="G16">
+        <v>14.4</v>
+      </c>
+      <c r="H16">
+        <v>6.4</v>
+      </c>
+      <c r="I16">
+        <v>10.3</v>
+      </c>
+      <c r="J16">
+        <v>7.6</v>
+      </c>
+      <c r="K16">
+        <v>5.3</v>
+      </c>
+      <c r="L16">
+        <v>11.9</v>
+      </c>
+      <c r="M16">
+        <v>10.9</v>
+      </c>
+      <c r="N16">
+        <v>7.7</v>
+      </c>
+      <c r="O16">
+        <v>10.9</v>
+      </c>
+      <c r="P16">
+        <v>7.8</v>
+      </c>
+      <c r="Q16">
+        <v>5</v>
+      </c>
+      <c r="R16">
+        <v>7.2999999999999989</v>
+      </c>
+      <c r="S16">
+        <v>9.1</v>
+      </c>
+      <c r="T16">
+        <v>4.7</v>
+      </c>
+      <c r="U16">
+        <v>6.5000000000000009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C17">
+        <v>14.1</v>
+      </c>
+      <c r="D17">
+        <v>5.3</v>
+      </c>
+      <c r="E17">
+        <v>5.3</v>
+      </c>
+      <c r="F17">
+        <v>12.5</v>
+      </c>
+      <c r="G17">
+        <v>15.3</v>
+      </c>
+      <c r="H17">
+        <v>7</v>
+      </c>
+      <c r="I17">
+        <v>12.4</v>
+      </c>
+      <c r="J17">
+        <v>10.6</v>
+      </c>
+      <c r="K17">
+        <v>12.7</v>
+      </c>
+      <c r="L17">
+        <v>12.8</v>
+      </c>
+      <c r="M17">
+        <v>10.4</v>
+      </c>
+      <c r="N17">
+        <v>5</v>
+      </c>
+      <c r="O17">
+        <v>10.3</v>
+      </c>
+      <c r="P17">
+        <v>14.4</v>
+      </c>
+      <c r="Q17">
+        <v>6.1999999999999993</v>
+      </c>
+      <c r="R17">
+        <v>9.7999999999999989</v>
+      </c>
+      <c r="S17">
+        <v>5.5</v>
+      </c>
+      <c r="T17">
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="U17">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>4.3</v>
+      </c>
+      <c r="C18">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="D18">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E18">
+        <v>11.5</v>
+      </c>
+      <c r="F18">
+        <v>4.2</v>
+      </c>
+      <c r="G18">
+        <v>7.6</v>
+      </c>
+      <c r="H18">
+        <v>14.4</v>
+      </c>
+      <c r="I18">
+        <v>8.5</v>
+      </c>
+      <c r="J18">
+        <v>8.7999999999999989</v>
+      </c>
+      <c r="K18">
+        <v>12.1</v>
+      </c>
+      <c r="L18">
+        <v>6.1999999999999993</v>
+      </c>
+      <c r="M18">
+        <v>15.4</v>
+      </c>
+      <c r="N18">
+        <v>10</v>
+      </c>
+      <c r="O18">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="P18">
+        <v>14.7</v>
+      </c>
+      <c r="Q18">
+        <v>6.7</v>
+      </c>
+      <c r="R18">
+        <v>8.1</v>
+      </c>
+      <c r="S18">
+        <v>15.2</v>
+      </c>
+      <c r="T18">
+        <v>11</v>
+      </c>
+      <c r="U18">
+        <v>9.3999999999999986</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19">
+        <v>9.3999999999999986</v>
+      </c>
+      <c r="C19">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D19">
+        <v>13.8</v>
+      </c>
+      <c r="E19">
+        <v>13.6</v>
+      </c>
+      <c r="F19">
+        <v>15.9</v>
+      </c>
+      <c r="G19">
+        <v>12.4</v>
+      </c>
+      <c r="H19">
+        <v>10.4</v>
+      </c>
+      <c r="I19">
+        <v>13.4</v>
+      </c>
+      <c r="J19">
+        <v>12.7</v>
+      </c>
+      <c r="K19">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="L19">
+        <v>5.3</v>
+      </c>
+      <c r="M19">
+        <v>13.4</v>
+      </c>
+      <c r="N19">
+        <v>12.5</v>
+      </c>
+      <c r="O19">
+        <v>5.1999999999999993</v>
+      </c>
+      <c r="P19">
+        <v>5.5</v>
+      </c>
+      <c r="Q19">
+        <v>13.7</v>
+      </c>
+      <c r="R19">
+        <v>11.6</v>
+      </c>
+      <c r="S19">
+        <v>6.3</v>
+      </c>
+      <c r="T19">
+        <v>13.5</v>
+      </c>
+      <c r="U19">
+        <v>6.5000000000000009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>8.6</v>
+      </c>
+      <c r="C20">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D20">
+        <v>5.3</v>
+      </c>
+      <c r="E20">
+        <v>7.6</v>
+      </c>
+      <c r="F20">
+        <v>9.1</v>
+      </c>
+      <c r="G20">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H20">
+        <v>10.3</v>
+      </c>
+      <c r="I20">
+        <v>12.1</v>
+      </c>
+      <c r="J20">
+        <v>3.2</v>
+      </c>
+      <c r="K20">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L20">
+        <v>11.4</v>
+      </c>
+      <c r="M20">
+        <v>7.9</v>
+      </c>
+      <c r="N20">
+        <v>12.1</v>
+      </c>
+      <c r="O20">
+        <v>14.8</v>
+      </c>
+      <c r="P20">
+        <v>15.7</v>
+      </c>
+      <c r="Q20">
+        <v>2.8</v>
+      </c>
+      <c r="R20">
+        <v>7.7999999999999989</v>
+      </c>
+      <c r="S20">
+        <v>7.2</v>
+      </c>
+      <c r="T20">
+        <v>8.6</v>
+      </c>
+      <c r="U20">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21">
+        <v>7.8</v>
+      </c>
+      <c r="C21">
+        <v>8.9</v>
+      </c>
+      <c r="D21">
+        <v>9.2999999999999989</v>
+      </c>
+      <c r="E21">
+        <v>6.3999999999999986</v>
+      </c>
+      <c r="F21">
+        <v>7.3999999999999986</v>
+      </c>
+      <c r="G21">
+        <v>5.4</v>
+      </c>
+      <c r="H21">
+        <v>6.7</v>
+      </c>
+      <c r="I21">
+        <v>14.7</v>
+      </c>
+      <c r="J21">
+        <v>9</v>
+      </c>
+      <c r="K21">
+        <v>11.5</v>
+      </c>
+      <c r="L21">
+        <v>6.6</v>
+      </c>
+      <c r="M21">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N21">
+        <v>14.9</v>
+      </c>
+      <c r="O21">
+        <v>10.6</v>
+      </c>
+      <c r="P21">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="Q21">
+        <v>13.1</v>
+      </c>
+      <c r="R21">
+        <v>6.3</v>
+      </c>
+      <c r="S21">
+        <v>6.7</v>
+      </c>
+      <c r="T21">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="U21">
+        <v>7.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67ED4808-686D-40B3-B5C3-470B9C8E09E0}">
+  <dimension ref="A1:U21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>56</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>56</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>56</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>56</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <v>56</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+      <c r="Q2">
+        <v>4</v>
+      </c>
+      <c r="R2">
+        <v>56</v>
+      </c>
+      <c r="S2">
+        <v>5</v>
+      </c>
+      <c r="T2">
+        <v>4</v>
+      </c>
+      <c r="U2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>6</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>6</v>
+      </c>
+      <c r="Q3">
+        <v>4</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>6</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>23</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>23</v>
+      </c>
+      <c r="J4">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>23</v>
+      </c>
+      <c r="M4">
+        <v>7</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>23</v>
+      </c>
+      <c r="P4">
+        <v>7</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <v>23</v>
+      </c>
+      <c r="S4">
+        <v>7</v>
+      </c>
+      <c r="T4">
+        <v>5</v>
+      </c>
+      <c r="U4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>8</v>
+      </c>
+      <c r="K5">
+        <v>6</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>8</v>
+      </c>
+      <c r="N5">
+        <v>6</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>8</v>
+      </c>
+      <c r="Q5">
+        <v>6</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
+      <c r="S5">
+        <v>8</v>
+      </c>
+      <c r="T5">
+        <v>6</v>
+      </c>
+      <c r="U5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>9</v>
+      </c>
+      <c r="K6">
+        <v>7</v>
+      </c>
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <v>9</v>
+      </c>
+      <c r="N6">
+        <v>7</v>
+      </c>
+      <c r="O6">
+        <v>6</v>
+      </c>
+      <c r="P6">
+        <v>9</v>
+      </c>
+      <c r="Q6">
+        <v>7</v>
+      </c>
+      <c r="R6">
+        <v>6</v>
+      </c>
+      <c r="S6">
+        <v>9</v>
+      </c>
+      <c r="T6">
+        <v>7</v>
+      </c>
+      <c r="U6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>8</v>
+      </c>
+      <c r="L7">
+        <v>7</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>8</v>
+      </c>
+      <c r="O7">
+        <v>7</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <v>8</v>
+      </c>
+      <c r="R7">
+        <v>7</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7">
+        <v>8</v>
+      </c>
+      <c r="U7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>9</v>
+      </c>
+      <c r="L8">
+        <v>8</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>9</v>
+      </c>
+      <c r="O8">
+        <v>8</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <v>9</v>
+      </c>
+      <c r="R8">
+        <v>8</v>
+      </c>
+      <c r="S8">
+        <v>3</v>
+      </c>
+      <c r="T8">
+        <v>9</v>
+      </c>
+      <c r="U8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="P9">
+        <v>4</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
+      <c r="S9">
+        <v>4</v>
+      </c>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>6</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <v>6</v>
+      </c>
+      <c r="P10">
+        <v>5</v>
+      </c>
+      <c r="Q10">
+        <v>3</v>
+      </c>
+      <c r="R10">
+        <v>6</v>
+      </c>
+      <c r="S10">
+        <v>5</v>
+      </c>
+      <c r="T10">
+        <v>3</v>
+      </c>
+      <c r="U10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>7</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>7</v>
+      </c>
+      <c r="M11">
+        <v>6</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+      <c r="O11">
+        <v>7</v>
+      </c>
+      <c r="P11">
+        <v>6</v>
+      </c>
+      <c r="Q11">
+        <v>4</v>
+      </c>
+      <c r="R11">
+        <v>7</v>
+      </c>
+      <c r="S11">
+        <v>6</v>
+      </c>
+      <c r="T11">
+        <v>4</v>
+      </c>
+      <c r="U11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <v>7</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>8</v>
+      </c>
+      <c r="M12">
+        <v>7</v>
+      </c>
+      <c r="N12">
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <v>8</v>
+      </c>
+      <c r="P12">
+        <v>7</v>
+      </c>
+      <c r="Q12">
+        <v>5</v>
+      </c>
+      <c r="R12">
+        <v>8</v>
+      </c>
+      <c r="S12">
+        <v>7</v>
+      </c>
+      <c r="T12">
+        <v>5</v>
+      </c>
+      <c r="U12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>9</v>
+      </c>
+      <c r="J13">
+        <v>8</v>
+      </c>
+      <c r="K13">
+        <v>6</v>
+      </c>
+      <c r="L13">
+        <v>9</v>
+      </c>
+      <c r="M13">
+        <v>8</v>
+      </c>
+      <c r="N13">
+        <v>6</v>
+      </c>
+      <c r="O13">
+        <v>9</v>
+      </c>
+      <c r="P13">
+        <v>8</v>
+      </c>
+      <c r="Q13">
+        <v>6</v>
+      </c>
+      <c r="R13">
+        <v>9</v>
+      </c>
+      <c r="S13">
+        <v>8</v>
+      </c>
+      <c r="T13">
+        <v>6</v>
+      </c>
+      <c r="U13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>9</v>
+      </c>
+      <c r="H14">
+        <v>7</v>
+      </c>
+      <c r="I14">
+        <v>9</v>
+      </c>
+      <c r="J14">
+        <v>9</v>
+      </c>
+      <c r="K14">
+        <v>7</v>
+      </c>
+      <c r="L14">
+        <v>9</v>
+      </c>
+      <c r="M14">
+        <v>9</v>
+      </c>
+      <c r="N14">
+        <v>7</v>
+      </c>
+      <c r="O14">
+        <v>9</v>
+      </c>
+      <c r="P14">
+        <v>9</v>
+      </c>
+      <c r="Q14">
+        <v>7</v>
+      </c>
+      <c r="R14">
+        <v>9</v>
+      </c>
+      <c r="S14">
+        <v>9</v>
+      </c>
+      <c r="T14">
+        <v>7</v>
+      </c>
+      <c r="U14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>8</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>8</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>8</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>8</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>9</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>9</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>9</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <v>9</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <v>9</v>
+      </c>
+      <c r="U16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>3</v>
+      </c>
+      <c r="P17">
+        <v>3</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>3</v>
+      </c>
+      <c r="S17">
+        <v>3</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>4</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18">
+        <v>4</v>
+      </c>
+      <c r="P18">
+        <v>4</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+      <c r="R18">
+        <v>4</v>
+      </c>
+      <c r="S18">
+        <v>4</v>
+      </c>
+      <c r="T18">
+        <v>2</v>
+      </c>
+      <c r="U18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>4</v>
+      </c>
+      <c r="L19">
+        <v>5</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+      <c r="N19">
+        <v>4</v>
+      </c>
+      <c r="O19">
+        <v>5</v>
+      </c>
+      <c r="P19">
+        <v>5</v>
+      </c>
+      <c r="Q19">
+        <v>4</v>
+      </c>
+      <c r="R19">
+        <v>5</v>
+      </c>
+      <c r="S19">
+        <v>5</v>
+      </c>
+      <c r="T19">
+        <v>4</v>
+      </c>
+      <c r="U19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>6</v>
+      </c>
+      <c r="J20">
+        <v>6</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <v>6</v>
+      </c>
+      <c r="M20">
+        <v>6</v>
+      </c>
+      <c r="N20">
+        <v>5</v>
+      </c>
+      <c r="O20">
+        <v>6</v>
+      </c>
+      <c r="P20">
+        <v>6</v>
+      </c>
+      <c r="Q20">
+        <v>5</v>
+      </c>
+      <c r="R20">
+        <v>6</v>
+      </c>
+      <c r="S20">
+        <v>6</v>
+      </c>
+      <c r="T20">
+        <v>5</v>
+      </c>
+      <c r="U20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>7</v>
+      </c>
+      <c r="G21">
+        <v>7</v>
+      </c>
+      <c r="H21">
+        <v>6</v>
+      </c>
+      <c r="I21">
+        <v>7</v>
+      </c>
+      <c r="J21">
+        <v>7</v>
+      </c>
+      <c r="K21">
+        <v>6</v>
+      </c>
+      <c r="L21">
+        <v>7</v>
+      </c>
+      <c r="M21">
+        <v>7</v>
+      </c>
+      <c r="N21">
+        <v>6</v>
+      </c>
+      <c r="O21">
+        <v>7</v>
+      </c>
+      <c r="P21">
+        <v>7</v>
+      </c>
+      <c r="Q21">
+        <v>6</v>
+      </c>
+      <c r="R21">
+        <v>7</v>
+      </c>
+      <c r="S21">
+        <v>7</v>
+      </c>
+      <c r="T21">
+        <v>6</v>
+      </c>
+      <c r="U21">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>